--- a/expenditure_by_state.xlsx
+++ b/expenditure_by_state.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF91D00-1254-4D69-A363-EF9D0DB6A648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499E4E28-70EA-478A-97BC-7B45458438B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2985" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -993,11 +993,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="66d92cf1-08e1-41e5-92d3-0cdcdb1e2433" ContentTypeId="0x01010004862C10171BD149BCA86DC4F354848008" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1047,7 +1042,41 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="66d92cf1-08e1-41e5-92d3-0cdcdb1e2433" ContentTypeId="0x01010004862C10171BD149BCA86DC4F354848008" PreviousValue="false"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <nf7721a2bf6741678a34670e75d66499 xmlns="2124141f-bf93-4eca-8662-34a4511e35c8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </nf7721a2bf6741678a34670e75d66499>
+    <Operational-Site-Doc-URL xmlns="2124141f-bf93-4eca-8662-34a4511e35c8" xsi:nil="true"/>
+    <Tradestart-Access xmlns="2124141f-bf93-4eca-8662-34a4511e35c8">true</Tradestart-Access>
+    <TaxCatchAll xmlns="2124141f-bf93-4eca-8662-34a4511e35c8"/>
+    <Operational-Doc-Desc xmlns="2124141f-bf93-4eca-8662-34a4511e35c8" xsi:nil="true"/>
+    <_dlc_DocId xmlns="52d2b1bf-f310-45e2-aba7-632ee969a559">HUB02-358-11993</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="52d2b1bf-f310-45e2-aba7-632ee969a559">
+      <Url>http://thehub/ws/co/sra/_layouts/15/DocIdRedir.aspx?ID=HUB02-358-11993</Url>
+      <Description>HUB02-358-11993</Description>
+    </_dlc_DocIdUrl>
+    <Record_x0020_ID xmlns="2124141f-bf93-4eca-8662-34a4511e35c8">R0000782127</Record_x0020_ID>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Operational-Document-BS" ma:contentTypeID="0x01010004862C10171BD149BCA86DC4F354848008003B505740C73B8A42ADB48B384F3DD9CF" ma:contentTypeVersion="50" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="dde77ce7edfca951fadefd20a477429a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2124141f-bf93-4eca-8662-34a4511e35c8" xmlns:ns3="52d2b1bf-f310-45e2-aba7-632ee969a559" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="977505e10e8610b4299f70e6f41d1a28" ns2:_="" ns3:_="">
     <xsd:import namespace="2124141f-bf93-4eca-8662-34a4511e35c8"/>
@@ -1259,36 +1288,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A49B7F18-4CB7-4C02-B76C-931A3CCEB9CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <nf7721a2bf6741678a34670e75d66499 xmlns="2124141f-bf93-4eca-8662-34a4511e35c8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </nf7721a2bf6741678a34670e75d66499>
-    <Operational-Site-Doc-URL xmlns="2124141f-bf93-4eca-8662-34a4511e35c8" xsi:nil="true"/>
-    <Tradestart-Access xmlns="2124141f-bf93-4eca-8662-34a4511e35c8">true</Tradestart-Access>
-    <TaxCatchAll xmlns="2124141f-bf93-4eca-8662-34a4511e35c8"/>
-    <Operational-Doc-Desc xmlns="2124141f-bf93-4eca-8662-34a4511e35c8" xsi:nil="true"/>
-    <_dlc_DocId xmlns="52d2b1bf-f310-45e2-aba7-632ee969a559">HUB02-358-11993</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="52d2b1bf-f310-45e2-aba7-632ee969a559">
-      <Url>http://thehub/ws/co/sra/_layouts/15/DocIdRedir.aspx?ID=HUB02-358-11993</Url>
-      <Description>HUB02-358-11993</Description>
-    </_dlc_DocIdUrl>
-    <Record_x0020_ID xmlns="2124141f-bf93-4eca-8662-34a4511e35c8">R0000782127</Record_x0020_ID>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13AB14A8-D4F1-4A32-B4FB-254AF726F93C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
@@ -1296,15 +1304,32 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A49B7F18-4CB7-4C02-B76C-931A3CCEB9CA}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41DBF403-6C0B-40D9-B68C-9844EC67F90B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2124141f-bf93-4eca-8662-34a4511e35c8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="52d2b1bf-f310-45e2-aba7-632ee969a559"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E6E65C1-2285-4BFE-AFBA-43AD6D83EE10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5EF4AD-9165-4865-96ED-E4435955E3A5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1321,29 +1346,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E6E65C1-2285-4BFE-AFBA-43AD6D83EE10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41DBF403-6C0B-40D9-B68C-9844EC67F90B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2124141f-bf93-4eca-8662-34a4511e35c8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="52d2b1bf-f310-45e2-aba7-632ee969a559"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>